--- a/API/Model/GenerateExcel/Templates/Employment Type.xlsx
+++ b/API/Model/GenerateExcel/Templates/Employment Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GC-FaMS-API\API\Model\GenerateExcel\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22471A39-1D6F-459C-B8FD-D0E68AC9938D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B6CB61-505A-4E57-98B8-AC793DD55455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BFB484B-CCF6-4471-8DB9-57ECD0265C47}"/>
+    <workbookView xWindow="29625" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{9BFB484B-CCF6-4471-8DB9-57ECD0265C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -50,20 +50,20 @@
     <t xml:space="preserve">Employment Status (PT/FT)	</t>
   </si>
   <si>
-    <t xml:space="preserve">Teaching Positon	</t>
-  </si>
-  <si>
     <t>Teaching Level</t>
   </si>
   <si>
     <t>Employment Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teaching Position	</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,14 +86,28 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -125,21 +139,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -165,6 +182,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>511926</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>188199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE8C0248-C120-40A4-5CAB-62612E9E8742}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1"/>
+          <a:ext cx="1194955" cy="1194370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -489,395 +561,395 @@
   </sheetPr>
   <dimension ref="A3:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="70" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="9.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-    </row>
-    <row r="45" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-    </row>
-    <row r="46" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-    </row>
-    <row r="50" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-    </row>
-    <row r="52" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-    </row>
-    <row r="53" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -886,6 +958,7 @@
     <mergeCell ref="A6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="64" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="87" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>